--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3896787.014465029</v>
+        <v>3892528.752238555</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.0755486</v>
+        <v>10955577.07554859</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7466824.098386333</v>
+        <v>7466824.098386334</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>24.96490338730473</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.9288914861688</v>
+        <v>345.3065617062215</v>
       </c>
       <c r="H2" t="n">
-        <v>315.163651471617</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I2" t="n">
-        <v>118.958190538686</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241008368</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011778</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T2" t="n">
         <v>212.7043385723318</v>
@@ -718,16 +718,16 @@
         <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261749</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I3" t="n">
-        <v>45.6666378732362</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.2990049919934</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156101</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973762</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.01913268275844</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>17.56714738419642</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861688</v>
+        <v>412.9288914861689</v>
       </c>
       <c r="H5" t="n">
-        <v>144.997889292315</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.958190538686</v>
+        <v>118.9581905386865</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241008368</v>
+        <v>0.7530123241016327</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011778</v>
+        <v>154.9260532011781</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>81.81938718431272</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261749</v>
+        <v>99.96876284261756</v>
       </c>
       <c r="I6" t="n">
-        <v>45.6666378732362</v>
+        <v>45.66663787323643</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.2990049919934</v>
+        <v>21.29900499199383</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156101</v>
+        <v>148.0912566156103</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973762</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7599048465899</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063228</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1527419348989</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>45.0946778191949</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149.9756826579784</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>316.7031066609457</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>114.0531435887089</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764733</v>
       </c>
     </row>
     <row r="11">
@@ -1423,10 +1423,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>211.8172046759427</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>143.5476780877535</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H25" t="n">
-        <v>99.98993057842264</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>139.1630968205461</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>79.70119244397701</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>54.32649042089713</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>139.3687739767484</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695582</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128558</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364137</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922689</v>
+        <v>86.09789039964352</v>
       </c>
       <c r="H40" t="n">
-        <v>140.294712846224</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856585</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012214</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016448</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.19083539426079</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>43.98166197004215</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>190.5970158126752</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444139</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569556</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128552</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364136</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983323</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012194</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>43.87236189622237</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1326.27571658211</v>
+        <v>1619.967927219983</v>
       </c>
       <c r="C2" t="n">
-        <v>1326.27571658211</v>
+        <v>1251.005410279572</v>
       </c>
       <c r="D2" t="n">
-        <v>1301.058642453519</v>
+        <v>1251.005410279572</v>
       </c>
       <c r="E2" t="n">
-        <v>915.2703898552753</v>
+        <v>1251.005410279572</v>
       </c>
       <c r="F2" t="n">
-        <v>908.3248891060719</v>
+        <v>840.0195054899641</v>
       </c>
       <c r="G2" t="n">
-        <v>491.2249987160023</v>
+        <v>491.224998716003</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760173993</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="I2" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002614</v>
+        <v>72.94508437002509</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199882</v>
+        <v>153.9986274745325</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.843037648571</v>
+        <v>693.1884131896754</v>
       </c>
       <c r="M2" t="n">
-        <v>1210.458592371948</v>
+        <v>1322.822366070954</v>
       </c>
       <c r="N2" t="n">
-        <v>1737.820616272757</v>
+        <v>1948.012457026069</v>
       </c>
       <c r="O2" t="n">
-        <v>2282.982253027256</v>
+        <v>2493.174093780566</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.009993239688</v>
+        <v>2602.201833992996</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4366,16 +4366,16 @@
         <v>2010.107259195795</v>
       </c>
       <c r="V2" t="n">
-        <v>1679.044371852224</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="W2" t="n">
-        <v>1326.27571658211</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="X2" t="n">
-        <v>1326.27571658211</v>
+        <v>2010.107259195795</v>
       </c>
       <c r="Y2" t="n">
-        <v>1326.27571658211</v>
+        <v>1619.967927219983</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120969</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309699</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697187</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642632</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911483</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640333</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815713</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I3" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J3" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K3" t="n">
-        <v>119.3005601895497</v>
+        <v>381.1211448320014</v>
       </c>
       <c r="L3" t="n">
-        <v>622.283394386663</v>
+        <v>884.1039790291131</v>
       </c>
       <c r="M3" t="n">
-        <v>800.1718462548838</v>
+        <v>1061.992430897332</v>
       </c>
       <c r="N3" t="n">
-        <v>1452.558180236626</v>
+        <v>1435.320983085765</v>
       </c>
       <c r="O3" t="n">
-        <v>2000.483419442302</v>
+        <v>1983.24622229144</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018973</v>
+        <v>2406.001465018975</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
         <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.648482162596</v>
+        <v>2039.648482162597</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.496373930853</v>
+        <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
         <v>1550.259017202652</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.6542705223911</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="C4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="D4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J4" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919744</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L4" t="n">
-        <v>337.189078548235</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M4" t="n">
-        <v>541.624208062819</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543812</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917153</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327093</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421867</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.751684421867</v>
+        <v>1030.007091104492</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.751684421867</v>
+        <v>822.4721498986607</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.751684421867</v>
+        <v>596.8197458373317</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.751684421867</v>
+        <v>596.8197458373317</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.751684421867</v>
+        <v>342.1352576314448</v>
       </c>
       <c r="W4" t="n">
-        <v>758.3345143849067</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="X4" t="n">
-        <v>530.3449634868894</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="Y4" t="n">
-        <v>309.5523843433592</v>
+        <v>52.7180875944842</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1147.426185633758</v>
+        <v>1755.714440735733</v>
       </c>
       <c r="C5" t="n">
-        <v>1147.426185633758</v>
+        <v>1386.751923795321</v>
       </c>
       <c r="D5" t="n">
-        <v>1147.426185633758</v>
+        <v>1386.751923795321</v>
       </c>
       <c r="E5" t="n">
-        <v>1147.426185633758</v>
+        <v>1000.963671197077</v>
       </c>
       <c r="F5" t="n">
-        <v>736.4402808441507</v>
+        <v>589.9777664074695</v>
       </c>
       <c r="G5" t="n">
-        <v>319.3403904540812</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760173993</v>
+        <v>172.8778760173998</v>
       </c>
       <c r="I5" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>117.2826393612375</v>
+        <v>240.3507333903781</v>
       </c>
       <c r="K5" t="n">
-        <v>519.2401409111995</v>
+        <v>642.3082349403386</v>
       </c>
       <c r="L5" t="n">
-        <v>1070.180592639783</v>
+        <v>1042.40770467237</v>
       </c>
       <c r="M5" t="n">
-        <v>1699.814545521063</v>
+        <v>1227.023259395744</v>
       </c>
       <c r="N5" t="n">
-        <v>2325.004636476181</v>
+        <v>1419.239895182996</v>
       </c>
       <c r="O5" t="n">
-        <v>2493.174093780562</v>
+        <v>1964.401531937493</v>
       </c>
       <c r="P5" t="n">
-        <v>2602.201833992994</v>
+        <v>2392.009993239691</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4597,22 +4597,22 @@
         <v>2478.652798385544</v>
       </c>
       <c r="T5" t="n">
-        <v>2263.799931140764</v>
+        <v>2478.652798385544</v>
       </c>
       <c r="U5" t="n">
-        <v>2263.799931140764</v>
+        <v>2224.960126440575</v>
       </c>
       <c r="V5" t="n">
-        <v>2263.799931140764</v>
+        <v>2224.960126440575</v>
       </c>
       <c r="W5" t="n">
-        <v>1911.03127587065</v>
+        <v>2142.314280799855</v>
       </c>
       <c r="X5" t="n">
-        <v>1537.56551760957</v>
+        <v>2142.314280799855</v>
       </c>
       <c r="Y5" t="n">
-        <v>1147.426185633758</v>
+        <v>2142.314280799855</v>
       </c>
     </row>
     <row r="6">
@@ -4622,61 +4622,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120977</v>
+        <v>966.4318812120981</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309707</v>
+        <v>791.9788519309711</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697194</v>
+        <v>643.0444422697199</v>
       </c>
       <c r="E6" t="n">
-        <v>483.806987264264</v>
+        <v>483.8069872642643</v>
       </c>
       <c r="F6" t="n">
-        <v>337.272429291149</v>
+        <v>337.2724292911493</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640334</v>
+        <v>199.8245529640337</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815711</v>
+        <v>98.84600463815735</v>
       </c>
       <c r="I6" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320026</v>
+        <v>381.1211448320014</v>
       </c>
       <c r="L6" t="n">
-        <v>533.9218802072602</v>
+        <v>884.1039790291131</v>
       </c>
       <c r="M6" t="n">
-        <v>1172.858345187981</v>
+        <v>1523.040444009832</v>
       </c>
       <c r="N6" t="n">
-        <v>1825.244679169723</v>
+        <v>1720.045718791142</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291437</v>
+        <v>2191.222737149931</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018973</v>
+        <v>2613.977979877466</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.904379724209</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.39023326765</v>
+        <v>2614.390233267651</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373094</v>
+        <v>2464.803105373095</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880795</v>
+        <v>2267.787695880796</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
@@ -4685,7 +4685,7 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202652</v>
+        <v>1550.259017202653</v>
       </c>
       <c r="X6" t="n">
         <v>1342.40751699712</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>373.1927110932634</v>
+        <v>371.7709099347268</v>
       </c>
       <c r="C7" t="n">
-        <v>373.1927110932634</v>
+        <v>202.8347270068199</v>
       </c>
       <c r="D7" t="n">
-        <v>373.1927110932634</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="E7" t="n">
-        <v>225.2796175108703</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="F7" t="n">
-        <v>225.2796175108703</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G7" t="n">
-        <v>225.2796175108703</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H7" t="n">
-        <v>70.97668332239559</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I7" t="n">
-        <v>70.97668332239559</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J7" t="n">
-        <v>52.71808759448418</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919744</v>
+        <v>153.1475318919737</v>
       </c>
       <c r="L7" t="n">
-        <v>337.189078548235</v>
+        <v>337.1890785482335</v>
       </c>
       <c r="M7" t="n">
-        <v>541.624208062819</v>
+        <v>541.6242080628167</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543812</v>
+        <v>746.632943554378</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917153</v>
+        <v>919.9753968917113</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327093</v>
+        <v>1044.779129327088</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421867</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="R7" t="n">
-        <v>917.2943693361109</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="S7" t="n">
-        <v>917.2943693361109</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="T7" t="n">
-        <v>917.2943693361109</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="U7" t="n">
-        <v>917.2943693361109</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="V7" t="n">
-        <v>662.609881130224</v>
+        <v>1047.751684421862</v>
       </c>
       <c r="W7" t="n">
-        <v>373.1927110932634</v>
+        <v>1002.201504806514</v>
       </c>
       <c r="X7" t="n">
-        <v>373.1927110932634</v>
+        <v>774.2119539084966</v>
       </c>
       <c r="Y7" t="n">
-        <v>373.1927110932634</v>
+        <v>553.4193747649665</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1153.240183941501</v>
+        <v>1589.767838252667</v>
       </c>
       <c r="C8" t="n">
-        <v>1153.240183941501</v>
+        <v>1220.805321312255</v>
       </c>
       <c r="D8" t="n">
-        <v>794.9744853347507</v>
+        <v>862.5396227055045</v>
       </c>
       <c r="E8" t="n">
-        <v>794.9744853347507</v>
+        <v>476.7513701072602</v>
       </c>
       <c r="F8" t="n">
-        <v>788.0289845855473</v>
+        <v>65.76546531765268</v>
       </c>
       <c r="G8" t="n">
-        <v>370.9412028219747</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H8" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I8" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3579866082205</v>
+        <v>73.95233758786749</v>
       </c>
       <c r="K8" t="n">
-        <v>323.9211411828128</v>
+        <v>156.5154921624599</v>
       </c>
       <c r="L8" t="n">
-        <v>850.7995893396632</v>
+        <v>588.2001439676429</v>
       </c>
       <c r="M8" t="n">
-        <v>1482.517400322975</v>
+        <v>1219.917954950955</v>
       </c>
       <c r="N8" t="n">
-        <v>2109.825068382821</v>
+        <v>1414.252167842937</v>
       </c>
       <c r="O8" t="n">
-        <v>2279.994093699781</v>
+        <v>1961.413372610014</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949308</v>
+        <v>2390.728418949309</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.904379724208</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="T8" t="n">
-        <v>2421.10451799192</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="U8" t="n">
-        <v>2421.10451799192</v>
+        <v>2635.90437972421</v>
       </c>
       <c r="V8" t="n">
-        <v>2421.10451799192</v>
+        <v>2316.002251783861</v>
       </c>
       <c r="W8" t="n">
-        <v>2068.335862721805</v>
+        <v>1963.233596513747</v>
       </c>
       <c r="X8" t="n">
-        <v>1694.870104460726</v>
+        <v>1589.767838252667</v>
       </c>
       <c r="Y8" t="n">
-        <v>1304.730772484914</v>
+        <v>1589.767838252667</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416769</v>
+        <v>98.62294460416771</v>
       </c>
       <c r="I9" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J9" t="n">
-        <v>52.71808759448417</v>
+        <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>382.1464919002941</v>
+        <v>500.8057437571897</v>
       </c>
       <c r="L9" t="n">
-        <v>886.5080317664126</v>
+        <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1440.265684947312</v>
+        <v>1645.712633090413</v>
       </c>
       <c r="N9" t="n">
-        <v>1638.922426599977</v>
+        <v>1954.200567553515</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.3584353527</v>
+        <v>2503.636576306238</v>
       </c>
       <c r="P9" t="n">
         <v>2612.326203833537</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.2297622201579</v>
+        <v>666.5739510150303</v>
       </c>
       <c r="C10" t="n">
-        <v>177.2297622201579</v>
+        <v>497.6377680871234</v>
       </c>
       <c r="D10" t="n">
-        <v>177.2297622201579</v>
+        <v>347.5211286747876</v>
       </c>
       <c r="E10" t="n">
-        <v>177.2297622201579</v>
+        <v>199.6080350923945</v>
       </c>
       <c r="F10" t="n">
-        <v>177.2297622201579</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="G10" t="n">
-        <v>177.2297622201579</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="H10" t="n">
-        <v>177.2297622201579</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="I10" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="J10" t="n">
-        <v>52.71808759448417</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4995,19 +4995,19 @@
         <v>1052.652769053829</v>
       </c>
       <c r="U10" t="n">
-        <v>763.5005926315087</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>763.5005926315087</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="W10" t="n">
-        <v>474.083422594548</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="X10" t="n">
-        <v>358.8782270503976</v>
+        <v>1052.652769053829</v>
       </c>
       <c r="Y10" t="n">
-        <v>358.8782270503976</v>
+        <v>848.22241584527</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>172.349019141113</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5272,52 +5272,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>315.9123021921471</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>913.2907898186992</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>219.0505596597677</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,10 +5551,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1653.302830625878</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1425.313279727861</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.955258982919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>889.0190760550122</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>738.9024366426764</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>590.9893430602833</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>444.0993955623729</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G25" t="n">
-        <v>276.9032962772529</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1688.385853854706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.396302956689</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1239.603723813159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.927936255316</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>634.927936255316</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.89229584329</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.207807637403</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958739</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>633.992644467967</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556313</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E37" t="n">
-        <v>483.8760050556313</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>483.8760050556313</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>316.6799057705112</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7165,58 +7165,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192457</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111681</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075746</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332377</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014765</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355918</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291067988</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694682</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778468</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967198</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354686</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.774219330013</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
-        <v>314.239661356898</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637279</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933892006</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.88989744661</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685894</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685894</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7286,7 +7286,7 @@
         <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228346</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
         <v>1781.463605996603</v>
@@ -7295,7 +7295,7 @@
         <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062869</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
         <v>1111.614450297915</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811337</v>
+        <v>1018.438627038652</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532269</v>
+        <v>849.5024441107454</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408911</v>
+        <v>699.3858046984096</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408911</v>
+        <v>551.4727111160165</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429807</v>
+        <v>404.5827636181061</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578606</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000586</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478295</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038325</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797711</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570811</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853352</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358025</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832652</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487557</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510498</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854696</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854696</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817735</v>
+        <v>1648.869221910439</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919718</v>
+        <v>1420.879671012422</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>1200.087091868892</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192549</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111699</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075775</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014771</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355927</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291067998</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694693</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.26572885224</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7475,40 +7475,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>951.7772127656162</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>782.8410298377094</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253736</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429805</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578604</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000585</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="T43" t="n">
-        <v>2152.636624305706</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="U43" t="n">
-        <v>1863.561397649904</v>
+        <v>2090.842153176855</v>
       </c>
       <c r="V43" t="n">
-        <v>1608.876909444017</v>
+        <v>1836.157664970968</v>
       </c>
       <c r="W43" t="n">
-        <v>1319.459739407057</v>
+        <v>1546.740494934007</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407057</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332382</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014772</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355944</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068015</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,40 +7712,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568979</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028058</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273882</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803928</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516123</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167369</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793919</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348524</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>697.5276345711974</v>
+        <v>513.8536007400653</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121584</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998227</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797725</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832657</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487561</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510502</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.3858538547</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648813</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.968678544967</v>
+        <v>916.2946447138352</v>
       </c>
       <c r="Y46" t="n">
-        <v>879.1760994014371</v>
+        <v>695.502065570305</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>405.7918549409168</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>338.5306950641978</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -7999,7 +7999,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026545511</v>
+        <v>6.839178026546165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792226</v>
+        <v>178.1043206132559</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>301.0514583865381</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.78540908203166</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>265.2965862711075</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026545511</v>
+        <v>6.839178026546165</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>17.12105356421108</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>459.9808678792226</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>316.3388638758349</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4644366824213</v>
+        <v>295.3090868322524</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>378.0407240669644</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>110.9405987984213</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-11</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>37.52737017530985</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>40.32043864788534</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>41.54258064659093</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>75.03697526434127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H25" t="n">
-        <v>40.30478226780124</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>147.021377568698</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>146.0084629450602</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9259388694754591</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>79.42624789262533</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>180.393817957834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T43" t="n">
-        <v>173.4237883572461</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>35.11263957636194</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823688</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>181.8372934928148</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690101.1538331794</v>
+        <v>690101.1538331799</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>690101.1538331794</v>
+        <v>690101.1538331799</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631028.1104448655</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448659</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448655</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176765</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176765</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.725617676</v>
-      </c>
       <c r="E2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="F2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977554</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="K2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977563</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977562</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222459</v>
+        <v>789845.933122243</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.74144847007</v>
+        <v>2553.741448472796</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329926</v>
+        <v>775624.2722329925</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821405</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.117466387</v>
+        <v>128024.1174663869</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.414273349471235e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.850323082588148e-09</v>
+        <v>-6.435271828862218e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.340540895</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.340540895</v>
+        <v>184436.3405408955</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660026</v>
@@ -26435,31 +26435,31 @@
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
+        <v>6287.480531695025</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="M4" t="n">
-        <v>6287.480531695051</v>
-      </c>
       <c r="N4" t="n">
-        <v>6287.480531695048</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.48053169537</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169505</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538451</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538451</v>
+        <v>86566.12012538445</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.12555917779</v>
+        <v>86631.1255591778</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260332.6681708491</v>
+        <v>-260332.6681708465</v>
       </c>
       <c r="C6" t="n">
-        <v>529513.264951397</v>
+        <v>529513.2649513964</v>
       </c>
       <c r="D6" t="n">
-        <v>527398.2731440256</v>
+        <v>527398.2731440233</v>
       </c>
       <c r="E6" t="n">
-        <v>-96066.34789083889</v>
+        <v>-96413.7271451956</v>
       </c>
       <c r="F6" t="n">
-        <v>679557.9243421541</v>
+        <v>679210.5450877964</v>
       </c>
       <c r="G6" t="n">
-        <v>679557.9243421536</v>
+        <v>679210.5450877971</v>
       </c>
       <c r="H6" t="n">
-        <v>679557.9243421532</v>
+        <v>679210.5450877966</v>
       </c>
       <c r="I6" t="n">
-        <v>679557.9243421538</v>
+        <v>679210.5450877964</v>
       </c>
       <c r="J6" t="n">
-        <v>507140.7829600133</v>
+        <v>506793.4037056565</v>
       </c>
       <c r="K6" t="n">
-        <v>679557.9243421541</v>
+        <v>679210.5450877965</v>
       </c>
       <c r="L6" t="n">
-        <v>679557.9243421536</v>
+        <v>679210.5450877968</v>
       </c>
       <c r="M6" t="n">
-        <v>551533.8068757667</v>
+        <v>551186.4276214098</v>
       </c>
       <c r="N6" t="n">
-        <v>679557.9243421576</v>
+        <v>679210.5450877971</v>
       </c>
       <c r="O6" t="n">
-        <v>679557.92434215</v>
+        <v>679210.5450877987</v>
       </c>
       <c r="P6" t="n">
-        <v>679557.9243421537</v>
+        <v>679210.5450877971</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053453</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053453</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26773,13 +26773,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341668</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341671</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310522</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310522</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310521</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053453</v>
+        <v>590.4941997053421</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632719771</v>
+        <v>2.981900632722954</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,13 +26992,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-5.911715561524034e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.684341886080801e-12</v>
+        <v>-3.396899204395653e-12</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310522</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685962</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685964</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310522</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685963</v>
+        <v>513.7321931685962</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>329.7181382333782</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>67.62232977994739</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92.81284749917886</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,13 +27554,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7599048465899</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842209</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063228</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371263</v>
+        <v>111.8478126529301</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937731</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>170.165762179302</v>
+        <v>315.1636514716171</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723318</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>267.4215815331003</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842209</v>
+        <v>123.428264884221</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063269</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2622181022273651</v>
+        <v>129.4149600371265</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937731</v>
+        <v>205.4595917937732</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207157</v>
@@ -27833,16 +27833,16 @@
         <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>241.4283205173961</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>232.7581590055022</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27906,13 +27906,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>11.04915180918925</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28031,7 +28031,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>111.6565118003282</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562146</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.37384602896621</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415021</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171991</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009711</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071108</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160856</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337134</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635137</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129809</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728775</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.348665360525</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170488</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506758</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179959</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172968</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366214</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387897</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817888</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401212</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976576</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L3" t="n">
-        <v>275.777503362388</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394131</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351629</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492063</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789748</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190978</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064973</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822769</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445397</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830361</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026032</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H4" t="n">
-        <v>9.46726766084964</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303742</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604049</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546608</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177249</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609716</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203292</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953887</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324575</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550714</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004323</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319912</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565773</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0580813966923291</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.37384602896621</v>
+        <v>2.373846028966198</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415021</v>
+        <v>24.31115064415008</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171991</v>
+        <v>91.51769903171942</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009711</v>
+        <v>201.47721440097</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071108</v>
+        <v>301.9621168071092</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160856</v>
+        <v>374.6107072160835</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337134</v>
+        <v>416.8265915337112</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635137</v>
+        <v>423.5712815635114</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129809</v>
+        <v>399.9663501129788</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728775</v>
+        <v>341.3620262728757</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.348665360525</v>
+        <v>256.3486653605236</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170488</v>
+        <v>149.116105617048</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506758</v>
+        <v>54.09401638506728</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179959</v>
+        <v>10.39151099179954</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172968</v>
+        <v>0.1899076823172958</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366214</v>
+        <v>1.270119599366208</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387897</v>
+        <v>12.2666813938789</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817888</v>
+        <v>43.72999497817865</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401212</v>
+        <v>119.9984486401205</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976576</v>
+        <v>205.0964617976564</v>
       </c>
       <c r="L6" t="n">
-        <v>275.777503362388</v>
+        <v>275.7775033623865</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394131</v>
+        <v>321.8193388394114</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351629</v>
+        <v>330.3369391351612</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492063</v>
+        <v>302.1937627492047</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789748</v>
+        <v>242.5371364789735</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190978</v>
+        <v>162.129652719097</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064973</v>
+        <v>78.85882916064931</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822769</v>
+        <v>23.59191448822757</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445397</v>
+        <v>5.11947329744537</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830361</v>
+        <v>0.08356049995830317</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026032</v>
+        <v>1.064825606026027</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084964</v>
+        <v>9.46726766084959</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303742</v>
+        <v>32.02221004303725</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604049</v>
+        <v>75.28317034604008</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546608</v>
+        <v>123.7133749546602</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177249</v>
+        <v>158.310526917724</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609716</v>
+        <v>166.9162538609707</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203292</v>
+        <v>162.9473584203284</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953887</v>
+        <v>150.5082592953879</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324575</v>
+        <v>128.7858169324568</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550714</v>
+        <v>89.16462415550666</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004323</v>
+        <v>47.87843134004297</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319912</v>
+        <v>18.55700624319902</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565773</v>
+        <v>4.549709407565749</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0580813966923291</v>
+        <v>0.05808139669232879</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>206.1632388819608</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>302.9675447508045</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375109</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409601</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>200.4500263280939</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>568.8264345569168</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,7 +33742,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.49939899634841</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135317</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067223</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663263</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817546</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162525</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175635</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159384</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.586862645999</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236474</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669198</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292895</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651518</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078727</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659437</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521088</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473046</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>698.850866879875</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071753</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437213</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485275</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742415</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937729</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275946</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189893</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121561</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869244</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796254</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355166</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588138</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392029</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106772</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920043</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417302</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515919</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670473</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532748</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099318</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467216</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.49939899634842</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135327</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067227</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663272</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.544175081756</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162541</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175653</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159403</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460007</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236489</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669209</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043717</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292897</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651522</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078735</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659443</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521093</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007747</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420748</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422575</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473057</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862103</v>
       </c>
       <c r="N45" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071767</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558087</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742425</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937731</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.193581438727595</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189898</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121565</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869258</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796257</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355171</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588144</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392036</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610678</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920049</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417308</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515923</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670475</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532756</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.5401391009932</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467218</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428481</v>
+        <v>20.43130987428373</v>
       </c>
       <c r="K2" t="n">
-        <v>406.017678333295</v>
+        <v>81.87226576212868</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965488</v>
+        <v>544.6361471870131</v>
       </c>
       <c r="M2" t="n">
-        <v>186.4803583064406</v>
+        <v>635.993891799271</v>
       </c>
       <c r="N2" t="n">
-        <v>532.6889130311206</v>
+        <v>631.5051423789046</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540395</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P2" t="n">
-        <v>110.129030517608</v>
+        <v>110.1290305176062</v>
       </c>
       <c r="Q2" t="n">
-        <v>246.3579661459802</v>
+        <v>34.04297548607414</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>67.25502282329856</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L3" t="n">
-        <v>508.063468885973</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173948</v>
+        <v>179.6853049173931</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310522</v>
+        <v>377.0995476650838</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814913</v>
+        <v>553.4598375814898</v>
       </c>
       <c r="P3" t="n">
-        <v>409.6141874511827</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689254</v>
+        <v>232.2251663689246</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128778</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L4" t="n">
-        <v>185.900552178041</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228122</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995578</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094284</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P4" t="n">
-        <v>126.064376197351</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812756</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>65.21671895631647</v>
+        <v>189.5279250463575</v>
       </c>
       <c r="K5" t="n">
-        <v>406.017678333295</v>
+        <v>406.0176783332934</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5055067965488</v>
+        <v>404.1408785172038</v>
       </c>
       <c r="M5" t="n">
-        <v>635.9938917992731</v>
+        <v>186.4803583064384</v>
       </c>
       <c r="N5" t="n">
-        <v>631.505142378907</v>
+        <v>194.1582179669205</v>
       </c>
       <c r="O5" t="n">
-        <v>169.8681386912941</v>
+        <v>550.6683199540374</v>
       </c>
       <c r="P5" t="n">
-        <v>110.129030517608</v>
+        <v>431.9277386890888</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.04297548607556</v>
+        <v>246.3579661459788</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358772</v>
+        <v>331.720259835876</v>
       </c>
       <c r="L6" t="n">
-        <v>154.3441771467249</v>
+        <v>508.0634688859715</v>
       </c>
       <c r="M6" t="n">
-        <v>645.3903686673948</v>
+        <v>645.390368667393</v>
       </c>
       <c r="N6" t="n">
-        <v>658.9760949310522</v>
+        <v>198.9952270518279</v>
       </c>
       <c r="O6" t="n">
-        <v>159.5975183047618</v>
+        <v>475.9363821805951</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045817</v>
+        <v>427.0254977045804</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689254</v>
+        <v>22.14787863307546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128778</v>
+        <v>101.4438831287773</v>
       </c>
       <c r="L7" t="n">
-        <v>185.900552178041</v>
+        <v>185.9005521780402</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228122</v>
+        <v>206.5001308228113</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995578</v>
+        <v>207.0795307995569</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094284</v>
+        <v>175.0933872094276</v>
       </c>
       <c r="P7" t="n">
-        <v>126.064376197351</v>
+        <v>126.0643761973503</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812756</v>
+        <v>3.002580903812273</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>532.2004526836871</v>
+        <v>436.0451028335183</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>247.6524856312129</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35260,16 +35260,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>559.3511648291915</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>311.6039742051533</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>79.32561221529411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>73.18080466315196</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610859</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>66.47561891376371</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>73.18080466315317</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>430.2720547770426</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,7 +37390,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>163.7852262023929</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236316375</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.70871103964</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036774</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462653</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902908</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193475</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243122</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683779</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924703</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674304</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>556.7168329578566</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238421</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992769</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.617838762506</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295265</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096338</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191299</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010435</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899058</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066237</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998975</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902574</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316773</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396409</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367754</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462669</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902926</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193493</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243139</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924714</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902396</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774673</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754081</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678985</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674315</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764192</v>
       </c>
       <c r="N45" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238434</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113643</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295296</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096342</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191306</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899065</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060446</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066243</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998979</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_9_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3892528.752238555</v>
+        <v>3894289.28254134</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10955577.07554859</v>
+        <v>10955577.0755486</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7466824.098386334</v>
+        <v>7466824.098386333</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>345.3065617062215</v>
+        <v>412.9288914861688</v>
       </c>
       <c r="H2" t="n">
-        <v>315.1636514716171</v>
+        <v>243.0831127842088</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386865</v>
+        <v>118.958190538686</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241008368</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011781</v>
+        <v>154.9260532011778</v>
       </c>
       <c r="T2" t="n">
         <v>212.7043385723318</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261749</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323643</v>
+        <v>45.6666378732362</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199383</v>
+        <v>21.2990049919934</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156101</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973762</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17.56714738419642</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937732</v>
+        <v>160.1616712388918</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3958800207157</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9288914861689</v>
+        <v>412.9288914861688</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386865</v>
+        <v>118.958190538686</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241016327</v>
+        <v>0.7530123241008368</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011781</v>
+        <v>154.9260532011778</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>81.81938718431317</v>
       </c>
       <c r="U5" t="n">
         <v>251.1557452255192</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>81.81938718431272</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261756</v>
+        <v>99.96876284261749</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323643</v>
+        <v>45.6666378732362</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199383</v>
+        <v>21.2990049919934</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156101</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973762</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>27.01866804856751</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>18.07600977063228</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>45.0946778191949</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>36.1414856817744</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>316.7031066609457</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>6.980384243200342</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444119</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>108.9065924712593</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>162.4016674345625</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>48.85497112745762</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>146.053516066753</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2854,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>86.09789039964352</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569556</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922689</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>190.5970158126752</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569556</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576169</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128552</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364136</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.9742741983323</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012194</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1619.967927219983</v>
+        <v>1246.502168958903</v>
       </c>
       <c r="C2" t="n">
-        <v>1251.005410279572</v>
+        <v>1246.502168958903</v>
       </c>
       <c r="D2" t="n">
-        <v>1251.005410279572</v>
+        <v>1246.502168958903</v>
       </c>
       <c r="E2" t="n">
-        <v>1251.005410279572</v>
+        <v>1246.502168958903</v>
       </c>
       <c r="F2" t="n">
-        <v>840.0195054899641</v>
+        <v>835.5162641692959</v>
       </c>
       <c r="G2" t="n">
-        <v>491.224998716003</v>
+        <v>418.4163737792264</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760173998</v>
+        <v>172.8778760173993</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002509</v>
+        <v>72.94508437002614</v>
       </c>
       <c r="K2" t="n">
-        <v>153.9986274745325</v>
+        <v>153.9986274745351</v>
       </c>
       <c r="L2" t="n">
-        <v>693.1884131896754</v>
+        <v>693.1884131896646</v>
       </c>
       <c r="M2" t="n">
-        <v>1322.822366070954</v>
+        <v>1322.822366070945</v>
       </c>
       <c r="N2" t="n">
-        <v>1948.012457026069</v>
+        <v>1948.012457026063</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780566</v>
+        <v>2493.174093780562</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992996</v>
+        <v>2602.201833992994</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4372,10 +4372,10 @@
         <v>2010.107259195795</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.107259195795</v>
+        <v>1636.641500934715</v>
       </c>
       <c r="Y2" t="n">
-        <v>1619.967927219983</v>
+        <v>1246.502168958903</v>
       </c>
     </row>
     <row r="3">
@@ -4400,43 +4400,43 @@
         <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640333</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815713</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J3" t="n">
-        <v>52.7180875944842</v>
+        <v>170.7774263352089</v>
       </c>
       <c r="K3" t="n">
-        <v>381.1211448320014</v>
+        <v>499.1804835727273</v>
       </c>
       <c r="L3" t="n">
-        <v>884.1039790291131</v>
+        <v>1002.16331776984</v>
       </c>
       <c r="M3" t="n">
-        <v>1061.992430897332</v>
+        <v>1238.315708304449</v>
       </c>
       <c r="N3" t="n">
-        <v>1435.320983085765</v>
+        <v>1435.32098308576</v>
       </c>
       <c r="O3" t="n">
-        <v>1983.24622229144</v>
+        <v>1983.246222291437</v>
       </c>
       <c r="P3" t="n">
-        <v>2406.001465018975</v>
+        <v>2406.001465018973</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.39023326765</v>
       </c>
       <c r="S3" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T3" t="n">
         <v>2267.787695880795</v>
@@ -4464,61 +4464,61 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="C4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="D4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="E4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919744</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482335</v>
+        <v>337.189078548235</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628167</v>
+        <v>541.624208062819</v>
       </c>
       <c r="N4" t="n">
-        <v>746.632943554378</v>
+        <v>746.6329435543812</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917113</v>
+        <v>919.9753968917153</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327093</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="R4" t="n">
-        <v>1030.007091104492</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="S4" t="n">
-        <v>822.4721498986607</v>
+        <v>885.9722185239968</v>
       </c>
       <c r="T4" t="n">
-        <v>596.8197458373317</v>
+        <v>885.9722185239968</v>
       </c>
       <c r="U4" t="n">
         <v>596.8197458373317</v>
@@ -4527,13 +4527,13 @@
         <v>342.1352576314448</v>
       </c>
       <c r="W4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="X4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="Y4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1755.714440735733</v>
+        <v>1755.714440735732</v>
       </c>
       <c r="C5" t="n">
         <v>1386.751923795321</v>
@@ -4552,43 +4552,43 @@
         <v>1386.751923795321</v>
       </c>
       <c r="E5" t="n">
-        <v>1000.963671197077</v>
+        <v>1000.963671197076</v>
       </c>
       <c r="F5" t="n">
-        <v>589.9777664074695</v>
+        <v>589.9777664074688</v>
       </c>
       <c r="G5" t="n">
-        <v>172.8778760173998</v>
+        <v>172.8778760173993</v>
       </c>
       <c r="H5" t="n">
-        <v>172.8778760173998</v>
+        <v>172.8778760173993</v>
       </c>
       <c r="I5" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903781</v>
+        <v>72.94508437002614</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403386</v>
+        <v>153.9986274745351</v>
       </c>
       <c r="L5" t="n">
-        <v>1042.40770467237</v>
+        <v>704.9390792031184</v>
       </c>
       <c r="M5" t="n">
-        <v>1227.023259395744</v>
+        <v>1334.573032084399</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895182996</v>
+        <v>1959.763123039516</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937493</v>
+        <v>2493.174093780562</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239691</v>
+        <v>2602.201833992994</v>
       </c>
       <c r="Q5" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="R5" t="n">
         <v>2635.143761215016</v>
@@ -4597,22 +4597,22 @@
         <v>2478.652798385544</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385544</v>
+        <v>2396.006952744823</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.960126440575</v>
+        <v>2142.314280799854</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.960126440575</v>
+        <v>2142.314280799854</v>
       </c>
       <c r="W5" t="n">
-        <v>2142.314280799855</v>
+        <v>2142.314280799854</v>
       </c>
       <c r="X5" t="n">
-        <v>2142.314280799855</v>
+        <v>2142.314280799854</v>
       </c>
       <c r="Y5" t="n">
-        <v>2142.314280799855</v>
+        <v>2142.314280799854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,61 +4622,61 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120981</v>
+        <v>966.4318812120977</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309711</v>
+        <v>791.9788519309707</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697199</v>
+        <v>643.0444422697194</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642643</v>
+        <v>483.806987264264</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911493</v>
+        <v>337.272429291149</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640337</v>
+        <v>199.8245529640334</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815735</v>
+        <v>98.84600463815711</v>
       </c>
       <c r="I6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J6" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="K6" t="n">
-        <v>381.1211448320014</v>
+        <v>119.3005601895497</v>
       </c>
       <c r="L6" t="n">
-        <v>884.1039790291131</v>
+        <v>622.283394386663</v>
       </c>
       <c r="M6" t="n">
-        <v>1523.040444009832</v>
+        <v>1261.219859367384</v>
       </c>
       <c r="N6" t="n">
-        <v>1720.045718791142</v>
+        <v>1913.606193349126</v>
       </c>
       <c r="O6" t="n">
-        <v>2191.222737149931</v>
+        <v>2461.531432554802</v>
       </c>
       <c r="P6" t="n">
-        <v>2613.977979877466</v>
+        <v>2613.977979877463</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="R6" t="n">
-        <v>2614.390233267651</v>
+        <v>2614.39023326765</v>
       </c>
       <c r="S6" t="n">
-        <v>2464.803105373095</v>
+        <v>2464.803105373094</v>
       </c>
       <c r="T6" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U6" t="n">
         <v>2039.648482162597</v>
@@ -4685,7 +4685,7 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W6" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X6" t="n">
         <v>1342.40751699712</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>371.7709099347268</v>
+        <v>417.3210895500802</v>
       </c>
       <c r="C7" t="n">
-        <v>202.8347270068199</v>
+        <v>248.3849066221732</v>
       </c>
       <c r="D7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720983752</v>
       </c>
       <c r="E7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720983752</v>
       </c>
       <c r="F7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720983752</v>
       </c>
       <c r="G7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720983752</v>
       </c>
       <c r="H7" t="n">
-        <v>52.7180875944842</v>
+        <v>98.26826720983752</v>
       </c>
       <c r="I7" t="n">
-        <v>52.7180875944842</v>
+        <v>70.97668332239559</v>
       </c>
       <c r="J7" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919737</v>
+        <v>153.1475318919744</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482335</v>
+        <v>337.189078548235</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628167</v>
+        <v>541.624208062819</v>
       </c>
       <c r="N7" t="n">
-        <v>746.632943554378</v>
+        <v>746.6329435543812</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917113</v>
+        <v>919.9753968917153</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327088</v>
+        <v>1044.779129327093</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="U7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="V7" t="n">
-        <v>1047.751684421862</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="W7" t="n">
-        <v>1002.201504806514</v>
+        <v>1047.751684421867</v>
       </c>
       <c r="X7" t="n">
-        <v>774.2119539084966</v>
+        <v>819.76213352385</v>
       </c>
       <c r="Y7" t="n">
-        <v>553.4193747649665</v>
+        <v>598.9695543803199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.767838252667</v>
+        <v>976.7157566499093</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.805321312255</v>
+        <v>607.7532397094976</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5396227055045</v>
+        <v>607.7532397094976</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7513701072602</v>
+        <v>221.9649871112534</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765268</v>
+        <v>185.4584359175419</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944842</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J8" t="n">
-        <v>73.95233758786749</v>
+        <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>156.5154921624599</v>
+        <v>392.8902124086426</v>
       </c>
       <c r="L8" t="n">
-        <v>588.2001439676429</v>
+        <v>532.2188682498958</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950955</v>
+        <v>1163.936679233208</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842937</v>
+        <v>1791.244347293054</v>
       </c>
       <c r="O8" t="n">
         <v>1961.413372610014</v>
       </c>
       <c r="P8" t="n">
-        <v>2390.728418949309</v>
+        <v>2390.728418949308</v>
       </c>
       <c r="Q8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="R8" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724209</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221037</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221037</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221037</v>
       </c>
       <c r="V8" t="n">
-        <v>2316.002251783861</v>
+        <v>2479.689342221037</v>
       </c>
       <c r="W8" t="n">
-        <v>1963.233596513747</v>
+        <v>2126.920686950923</v>
       </c>
       <c r="X8" t="n">
-        <v>1589.767838252667</v>
+        <v>1753.454928689843</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.767838252667</v>
+        <v>1363.315596714031</v>
       </c>
     </row>
     <row r="9">
@@ -4877,13 +4877,13 @@
         <v>199.5389224593631</v>
       </c>
       <c r="H9" t="n">
-        <v>98.62294460416771</v>
+        <v>98.62294460416769</v>
       </c>
       <c r="I9" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3773394513799</v>
+        <v>171.3773394513798</v>
       </c>
       <c r="K9" t="n">
         <v>500.8057437571897</v>
@@ -4892,13 +4892,13 @@
         <v>1005.167283623308</v>
       </c>
       <c r="M9" t="n">
-        <v>1645.712633090413</v>
+        <v>1440.265684947312</v>
       </c>
       <c r="N9" t="n">
-        <v>1954.200567553515</v>
+        <v>1638.922426599977</v>
       </c>
       <c r="O9" t="n">
-        <v>2503.636576306238</v>
+        <v>2188.3584353527</v>
       </c>
       <c r="P9" t="n">
         <v>2612.326203833537</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>666.5739510150303</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="C10" t="n">
-        <v>497.6377680871234</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="D10" t="n">
-        <v>347.5211286747876</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="E10" t="n">
-        <v>199.6080350923945</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="F10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="G10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="H10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="I10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="J10" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448418</v>
       </c>
       <c r="K10" t="n">
         <v>153.766017190094</v>
@@ -4998,16 +4998,16 @@
         <v>1052.652769053829</v>
       </c>
       <c r="V10" t="n">
-        <v>1052.652769053829</v>
+        <v>797.9682808479421</v>
       </c>
       <c r="W10" t="n">
-        <v>1052.652769053829</v>
+        <v>508.5511108109815</v>
       </c>
       <c r="X10" t="n">
-        <v>1052.652769053829</v>
+        <v>280.5615599129641</v>
       </c>
       <c r="Y10" t="n">
-        <v>848.22241584527</v>
+        <v>59.76898076943402</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362667</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1231.938859683104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
         <v>1859.536823237711</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>594.8179559048583</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>315.9123021921471</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>315.9123021921471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898186992</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5536,31 +5536,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5652,25 +5652,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961266</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>513.8536007400712</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>366.9636532421608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
         <v>2001.151557821488</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,40 +6949,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,40 +7186,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1018.438627038652</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>849.5024441107454</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>699.3858046984096</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>551.4727111160165</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>404.5827636181061</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.2863919474</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1938.2863919474</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1648.869221910439</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1420.879671012422</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1200.087091868892</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7390,61 +7390,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192549</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111699</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075775</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014771</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355927</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291067998</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694693</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.26572885224</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
         <v>3820.749612123003</v>
@@ -7475,34 +7475,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273882</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803928</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516123</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167369</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793919</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348524</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656162</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377094</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253736</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429805</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429805</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578604</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000585</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832657</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832657</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2090.842153176855</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.157664970968</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1546.740494934007</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332382</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014772</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355944</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068015</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,34 +7712,34 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568979</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028058</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273882</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803928</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516123</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167369</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793919</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348524</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400653</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121584</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998227</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038332</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797725</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832657</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487561</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510502</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.3858538547</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648813</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611853</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138352</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.502065570305</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>405.7918549409168</v>
+        <v>405.7918549409012</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>6.839178026546165</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58.85246329938161</v>
       </c>
       <c r="N3" t="n">
-        <v>178.1043206132559</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>265.2965862711075</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>368.9308216531965</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>6.839178026546165</v>
+        <v>6.839178026545511</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>459.9808678792226</v>
       </c>
       <c r="O6" t="n">
-        <v>316.3388638758349</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>45.42368237238722</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8452,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>69.66572851093909</v>
       </c>
       <c r="L8" t="n">
-        <v>295.3090868322524</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8540,16 +8540,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>258.1828939084838</v>
       </c>
       <c r="N9" t="n">
-        <v>110.9405987984213</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.77635683940025e-11</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>37.52737017530985</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>116.6691671648112</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>106.084127257075</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>79.42624789262533</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>35.11263957636194</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823688</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922689</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.2658363185657</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>690101.1538331799</v>
+        <v>690101.1538331794</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>690101.1538331799</v>
+        <v>690101.1538331794</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>631028.1104448657</v>
+        <v>631028.1104448658</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>631028.1104448658</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>631028.1104448659</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>631028.1104448655</v>
+        <v>631028.1104448657</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176764</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176765</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176765</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
       <c r="I2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="J2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977563</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977562</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.933122243</v>
+        <v>789845.9331222459</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448472796</v>
+        <v>2553.74144847007</v>
       </c>
       <c r="E3" t="n">
-        <v>775624.2722329925</v>
+        <v>775624.2722329921</v>
       </c>
       <c r="F3" t="n">
         <v>1.797263848857256e-10</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821405</v>
+        <v>172417.1413821403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128024.1174663869</v>
+        <v>128024.1174663868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-6.435271828862218e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.340540895</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408955</v>
+        <v>184436.340540895</v>
       </c>
       <c r="D4" t="n">
-        <v>183932.5854660026</v>
+        <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.48053169514</v>
       </c>
       <c r="F4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695117</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695025</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.48053169537</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.48053169505</v>
+        <v>6287.480531695013</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538451</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538445</v>
+        <v>86566.12012538451</v>
       </c>
       <c r="D5" t="n">
-        <v>86631.1255591778</v>
+        <v>86631.12555917779</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260332.6681708465</v>
+        <v>-260332.6681708491</v>
       </c>
       <c r="C6" t="n">
-        <v>529513.2649513964</v>
+        <v>529513.264951397</v>
       </c>
       <c r="D6" t="n">
-        <v>527398.2731440233</v>
+        <v>527398.2731440259</v>
       </c>
       <c r="E6" t="n">
-        <v>-96413.7271451956</v>
+        <v>-96101.08581627431</v>
       </c>
       <c r="F6" t="n">
-        <v>679210.5450877964</v>
+        <v>679523.1864167178</v>
       </c>
       <c r="G6" t="n">
-        <v>679210.5450877971</v>
+        <v>679523.1864167178</v>
       </c>
       <c r="H6" t="n">
-        <v>679210.5450877966</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="I6" t="n">
-        <v>679210.5450877964</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="J6" t="n">
-        <v>506793.4037056565</v>
+        <v>507106.0450345778</v>
       </c>
       <c r="K6" t="n">
-        <v>679210.5450877965</v>
+        <v>679523.1864167182</v>
       </c>
       <c r="L6" t="n">
-        <v>679210.5450877968</v>
+        <v>679523.1864167178</v>
       </c>
       <c r="M6" t="n">
-        <v>551186.4276214098</v>
+        <v>551499.0689503313</v>
       </c>
       <c r="N6" t="n">
-        <v>679210.5450877971</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="O6" t="n">
-        <v>679210.5450877987</v>
+        <v>679523.1864167179</v>
       </c>
       <c r="P6" t="n">
-        <v>679210.5450877971</v>
+        <v>679523.1864167179</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053453</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053453</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341671</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310522</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310522</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310522</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053421</v>
+        <v>590.4941997053453</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632722954</v>
+        <v>2.981900632719771</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.396899204395653e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310522</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685962</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310523</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685964</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310524</v>
+        <v>658.9760949310522</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685962</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>67.62232977994739</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72.08053868740819</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H4" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465899</v>
       </c>
       <c r="I4" t="n">
-        <v>123.428264884221</v>
+        <v>123.4282648842209</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063269</v>
+        <v>18.07600977063228</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>111.8478126529301</v>
+        <v>129.4149600371263</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>45.29792055488133</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3958800207157</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2609479597986</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>315.163651471617</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>130.8849513880186</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>267.4215815331003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27791,13 +27791,13 @@
         <v>166.9261537524327</v>
       </c>
       <c r="H7" t="n">
-        <v>152.75990484659</v>
+        <v>152.7599048465899</v>
       </c>
       <c r="I7" t="n">
-        <v>123.428264884221</v>
+        <v>96.40959683565336</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063269</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371265</v>
+        <v>129.4149600371263</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937732</v>
+        <v>205.4595917937731</v>
       </c>
       <c r="T7" t="n">
         <v>223.3958800207157</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>241.4283205173961</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>370.7345600599371</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27912,7 +27912,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>11.04915180918925</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>172.8515959387369</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28070,16 +28070,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.872098338420246e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.938863277065169e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -30750,7 +30750,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966198</v>
+        <v>2.37384602896621</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064415021</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171991</v>
       </c>
       <c r="J2" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009711</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071108</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160856</v>
       </c>
       <c r="M2" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337134</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635137</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129809</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728775</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605236</v>
+        <v>256.348665360525</v>
       </c>
       <c r="R2" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170488</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506758</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179959</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172968</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366214</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2666813938789</v>
+        <v>12.26668139387897</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817888</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401212</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976576</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623865</v>
+        <v>275.777503362388</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394131</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351629</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492063</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789748</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190978</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064973</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822769</v>
       </c>
       <c r="T3" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445397</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830361</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026032</v>
       </c>
       <c r="H4" t="n">
-        <v>9.46726766084959</v>
+        <v>9.46726766084964</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303742</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034604049</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546608</v>
       </c>
       <c r="L4" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177249</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609716</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203284</v>
+        <v>162.9473584203292</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953887</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324575</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550714</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004323</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319912</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565773</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.0580813966923291</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966198</v>
+        <v>2.37384602896621</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415008</v>
+        <v>24.31115064415021</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171942</v>
+        <v>91.51769903171991</v>
       </c>
       <c r="J5" t="n">
-        <v>201.47721440097</v>
+        <v>201.4772144009711</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071092</v>
+        <v>301.9621168071108</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160835</v>
+        <v>374.6107072160856</v>
       </c>
       <c r="M5" t="n">
-        <v>416.8265915337112</v>
+        <v>416.8265915337134</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635114</v>
+        <v>423.5712815635137</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129788</v>
+        <v>399.9663501129809</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728757</v>
+        <v>341.3620262728775</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605236</v>
+        <v>256.348665360525</v>
       </c>
       <c r="R5" t="n">
-        <v>149.116105617048</v>
+        <v>149.1161056170488</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506728</v>
+        <v>54.09401638506758</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179954</v>
+        <v>10.39151099179959</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172958</v>
+        <v>0.1899076823172968</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366208</v>
+        <v>1.270119599366214</v>
       </c>
       <c r="H6" t="n">
-        <v>12.2666813938789</v>
+        <v>12.26668139387897</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817865</v>
+        <v>43.72999497817888</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401205</v>
+        <v>119.9984486401212</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976564</v>
+        <v>205.0964617976576</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623865</v>
+        <v>275.777503362388</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394114</v>
+        <v>321.8193388394131</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351612</v>
+        <v>330.3369391351629</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492047</v>
+        <v>302.1937627492063</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789735</v>
+        <v>242.5371364789748</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.129652719097</v>
+        <v>162.1296527190978</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064931</v>
+        <v>78.85882916064973</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822757</v>
+        <v>23.59191448822769</v>
       </c>
       <c r="T6" t="n">
-        <v>5.11947329744537</v>
+        <v>5.119473297445397</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830317</v>
+        <v>0.08356049995830361</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026027</v>
+        <v>1.064825606026032</v>
       </c>
       <c r="H7" t="n">
-        <v>9.46726766084959</v>
+        <v>9.46726766084964</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303725</v>
+        <v>32.02221004303742</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034604008</v>
+        <v>75.28317034604049</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546602</v>
+        <v>123.7133749546608</v>
       </c>
       <c r="L7" t="n">
-        <v>158.310526917724</v>
+        <v>158.3105269177249</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609707</v>
+        <v>166.9162538609716</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203284</v>
+        <v>162.9473584203292</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953879</v>
+        <v>150.5082592953887</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324568</v>
+        <v>128.7858169324575</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550666</v>
+        <v>89.16462415550714</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004297</v>
+        <v>47.87843134004323</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319902</v>
+        <v>18.55700624319912</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565749</v>
+        <v>4.549709407565773</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232879</v>
+        <v>0.0580813966923291</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>302.9675447508045</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>211.0222436375109</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32326,16 +32326,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>200.4500263280939</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007747</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420748</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071767</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558087</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.49939899634842</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135327</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067227</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663272</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.544175081756</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162541</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175653</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159403</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460007</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236489</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669209</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043717</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292897</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651522</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078735</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659443</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521093</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007747</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420748</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422575</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473057</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862103</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071767</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558087</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742425</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937731</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.193581438727595</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189898</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121565</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869258</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796257</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355171</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588144</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392036</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.493960610678</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920049</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417308</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515923</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670475</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532756</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
-        <v>10.5401391009932</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467218</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428373</v>
+        <v>20.43130987428481</v>
       </c>
       <c r="K2" t="n">
-        <v>81.87226576212868</v>
+        <v>81.87226576213027</v>
       </c>
       <c r="L2" t="n">
-        <v>544.6361471870131</v>
+        <v>544.6361471869996</v>
       </c>
       <c r="M2" t="n">
-        <v>635.993891799271</v>
+        <v>635.9938917992731</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789046</v>
+        <v>631.505142378907</v>
       </c>
       <c r="O2" t="n">
-        <v>550.6683199540374</v>
+        <v>550.6683199540395</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176062</v>
+        <v>110.129030517608</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607414</v>
+        <v>34.04297548607556</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>119.2518573138633</v>
       </c>
       <c r="K3" t="n">
-        <v>331.720259835876</v>
+        <v>331.7202598358772</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859715</v>
+        <v>508.063468885973</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173931</v>
+        <v>238.5377682167764</v>
       </c>
       <c r="N3" t="n">
-        <v>377.0995476650838</v>
+        <v>198.9952270518296</v>
       </c>
       <c r="O3" t="n">
-        <v>553.4598375814898</v>
+        <v>553.4598375814913</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0254977045804</v>
+        <v>427.0254977045817</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689246</v>
+        <v>232.2251663689254</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.4438831287773</v>
+        <v>101.443883128778</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780402</v>
+        <v>185.900552178041</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228122</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995578</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094284</v>
       </c>
       <c r="P4" t="n">
-        <v>126.0643761973503</v>
+        <v>126.064376197351</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903812756</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463575</v>
+        <v>20.43130987428481</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332934</v>
+        <v>81.87226576213027</v>
       </c>
       <c r="L5" t="n">
-        <v>404.1408785172038</v>
+        <v>556.5055067965488</v>
       </c>
       <c r="M5" t="n">
-        <v>186.4803583064384</v>
+        <v>635.9938917992731</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1582179669205</v>
+        <v>631.505142378907</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540374</v>
+        <v>538.7989603444906</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890888</v>
+        <v>110.129030517608</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459788</v>
+        <v>34.04297548607556</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>331.720259835876</v>
+        <v>67.25502282329856</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859715</v>
+        <v>508.063468885973</v>
       </c>
       <c r="M6" t="n">
-        <v>645.390368667393</v>
+        <v>645.3903686673948</v>
       </c>
       <c r="N6" t="n">
-        <v>198.9952270518279</v>
+        <v>658.9760949310522</v>
       </c>
       <c r="O6" t="n">
-        <v>475.9363821805951</v>
+        <v>553.4598375814913</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045804</v>
+        <v>153.9864114370318</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.14787863307546</v>
+        <v>22.14787863307632</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.4438831287773</v>
+        <v>101.443883128778</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780402</v>
+        <v>185.900552178041</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228113</v>
+        <v>206.5001308228122</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995569</v>
+        <v>207.0795307995578</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094276</v>
+        <v>175.0933872094284</v>
       </c>
       <c r="P7" t="n">
-        <v>126.0643761973503</v>
+        <v>126.064376197351</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812273</v>
+        <v>3.002580903812756</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,22 +35172,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>83.39712583292157</v>
+        <v>153.0628543438607</v>
       </c>
       <c r="L8" t="n">
-        <v>436.0451028335183</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35260,16 +35260,16 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>439.4933346707109</v>
       </c>
       <c r="N9" t="n">
-        <v>311.6039742051533</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>22.96660727472423</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>160.8335108287862</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.858447819351</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>73.18080466315196</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35883,7 +35883,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35974,16 +35974,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>66.47561891376371</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,22 +37390,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902574</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774673</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754081</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238434</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113643</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236316773</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396409</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367754</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462669</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902926</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193493</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243139</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924714</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902396</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774673</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754081</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678985</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764192</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238434</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113643</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295296</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096342</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191306</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010442</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060446</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066243</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998979</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
